--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SSLZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2143000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2043000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2046000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1727000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1692000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1506000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1403000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1191000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1181000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1261000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1457000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1241000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1149000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1162000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1253000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1066000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1069000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1055000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1001000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>882000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E10" s="3">
         <v>802000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>897000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>565000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>439000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>440000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>334000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>379000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E12" s="3">
         <v>28000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>60000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>91000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>47000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>36000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>152000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,51 +929,57 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E14" s="3">
         <v>25000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>76000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-34000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>951000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>44000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1477000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2854000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>3000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1000</v>
       </c>
       <c r="F15" s="3">
         <v>1000</v>
@@ -971,19 +994,22 @@
         <v>1000</v>
       </c>
       <c r="J15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="3">
         <v>4000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1000</v>
       </c>
       <c r="L15" s="3">
         <v>1000</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1715000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1453000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1275000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1392000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1535000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2248000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1286000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2793000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3953000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1087000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E18" s="3">
         <v>590000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>771000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>335000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>157000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-742000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>117000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>174000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,8 +1112,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1114,43 +1148,49 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1050000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>782000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>663000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>203000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-394000</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>550000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1184,78 +1224,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E23" s="3">
         <v>590000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>771000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>335000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>157000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-742000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>117000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>174000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E24" s="3">
         <v>202000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>245000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>231000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-236000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>60000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-498000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-789000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>144000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E26" s="3">
         <v>388000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>526000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>104000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>146000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-506000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>57000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E27" s="3">
         <v>388000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>526000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>104000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>146000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-506000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>57000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,8 +1566,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1534,43 +1604,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E33" s="3">
         <v>388000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>526000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>146000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-506000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>57000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E35" s="3">
         <v>388000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>526000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>146000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-506000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>57000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,299 +1795,324 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1215000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1316000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1492000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1231000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2226000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2026000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1034000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1343000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>399000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E42" s="3">
         <v>14000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>28000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14000</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>17000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>7000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>651000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E43" s="3">
         <v>423000</v>
       </c>
-      <c r="E43" s="3">
-        <v>534000</v>
-      </c>
       <c r="F43" s="3">
+        <v>562000</v>
+      </c>
+      <c r="G43" s="3">
         <v>451000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>447000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>370000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>382000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>532000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>477000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>650000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E44" s="3">
         <v>304000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>288000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>252000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>266000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>284000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>321000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>379000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>360000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>526000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E45" s="3">
         <v>10000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>293000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>214000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>45000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>448000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>86000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2180000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1966000</v>
       </c>
-      <c r="E46" s="3">
-        <v>2198000</v>
-      </c>
       <c r="F46" s="3">
+        <v>2226000</v>
+      </c>
+      <c r="G46" s="3">
         <v>2502000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1972000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2929000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2950000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1991000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2125000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1662000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E47" s="3">
         <v>157000</v>
       </c>
-      <c r="E47" s="3">
-        <v>199000</v>
-      </c>
       <c r="F47" s="3">
+        <v>219000</v>
+      </c>
+      <c r="G47" s="3">
         <v>82000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>177000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>197000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>213000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>233000</v>
       </c>
       <c r="K47" s="3">
         <v>233000</v>
       </c>
       <c r="L47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="M47" s="3">
         <v>287000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12806000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12715000</v>
       </c>
-      <c r="E48" s="3">
-        <v>12347000</v>
-      </c>
       <c r="F48" s="3">
+        <v>12383000</v>
+      </c>
+      <c r="G48" s="3">
         <v>9673000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10121000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10169000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11028000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11710000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13105000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21096000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>628000</v>
+        <v>481000</v>
       </c>
       <c r="E49" s="3">
         <v>628000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
+      <c r="F49" s="3">
+        <v>481000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>11</v>
@@ -2018,14 +2129,17 @@
       <c r="K49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1761000</v>
       </c>
-      <c r="E52" s="3">
-        <v>1762000</v>
-      </c>
       <c r="F52" s="3">
+        <v>1502000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1154000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1436000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1377000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1071000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1089000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>486000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>468000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16509000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17227000</v>
       </c>
-      <c r="E54" s="3">
-        <v>17134000</v>
-      </c>
       <c r="F54" s="3">
+        <v>16811000</v>
+      </c>
+      <c r="G54" s="3">
         <v>13411000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13706000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14672000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15262000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15023000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15949000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23513000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E57" s="3">
         <v>556000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>661000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>455000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>495000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>474000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>520000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>483000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>618000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>952000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E58" s="3">
         <v>435000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>967000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>803000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>207000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>415000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>420000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>190000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>152000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E59" s="3">
         <v>233000</v>
       </c>
-      <c r="E59" s="3">
-        <v>220000</v>
-      </c>
       <c r="F59" s="3">
+        <v>226000</v>
+      </c>
+      <c r="G59" s="3">
         <v>485000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>249000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>370000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>616000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>202000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>226000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1224000</v>
       </c>
-      <c r="E60" s="3">
-        <v>1848000</v>
-      </c>
       <c r="F60" s="3">
+        <v>1854000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1743000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>951000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1259000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1556000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>875000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>926000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1578000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4111000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4175000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3952000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3026000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3756000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4588000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4842000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5491000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5555000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8953000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3403000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4296000</v>
       </c>
-      <c r="E62" s="3">
-        <v>4055000</v>
-      </c>
       <c r="F62" s="3">
+        <v>3726000</v>
+      </c>
+      <c r="G62" s="3">
         <v>1644000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1848000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1908000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1784000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2288000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2047000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3269000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8833000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9695000</v>
       </c>
-      <c r="E66" s="3">
-        <v>9855000</v>
-      </c>
       <c r="F66" s="3">
+        <v>9532000</v>
+      </c>
+      <c r="G66" s="3">
         <v>6413000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6555000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7755000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8182000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8654000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8528000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13800000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-359000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-514000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-774000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-980000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>122000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2070000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7676000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7532000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7279000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6998000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7151000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6917000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7080000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6369000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7421000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9713000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E81" s="3">
         <v>388000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>526000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>146000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-506000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>57000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>995000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1051000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>934000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>644000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>586000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>662000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>566000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>291000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>562000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>532000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-674000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-359000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-258000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-312000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-222000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-225000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>20000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-992000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,17 +3682,18 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-127000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3473,19 +3707,22 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-43000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-78000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-83000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-460000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-791000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1010000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-120000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-220000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>664000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-121000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1033000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>333000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>-5000</v>
       </c>
       <c r="F101" s="3">
         <v>-5000</v>
       </c>
       <c r="G101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-101000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-176000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>261000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-995000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>992000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>195000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>707000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-328000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1728000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2143000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2043000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2046000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1727000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1692000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1506000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1403000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1191000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1181000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1261000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1457000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1241000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1149000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1162000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1253000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1066000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1069000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1055000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1001000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>882000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E10" s="3">
         <v>686000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>802000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>897000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>565000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>439000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>440000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>334000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>180000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>379000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,46 +869,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
         <v>75000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>60000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>45000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>41000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>53000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>91000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>36000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>152000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,57 +949,63 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E14" s="3">
         <v>52000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>76000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-34000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>951000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>44000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1477000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2854000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1000</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
@@ -997,19 +1020,22 @@
         <v>1000</v>
       </c>
       <c r="K15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="3">
         <v>4000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1000</v>
       </c>
       <c r="M15" s="3">
         <v>1000</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2119000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1715000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1453000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1275000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1392000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1535000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2248000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1286000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2793000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3953000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1087000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-391000</v>
+      </c>
+      <c r="E18" s="3">
         <v>428000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>590000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>771000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>335000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>157000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-742000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>117000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>174000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,8 +1146,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,46 +1185,52 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E21" s="3">
         <v>510000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1050000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>782000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>663000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>203000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-394000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>550000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,84 +1267,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-391000</v>
+      </c>
+      <c r="E23" s="3">
         <v>428000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>590000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>771000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>335000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>157000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-742000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>117000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>174000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="E24" s="3">
         <v>142000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>202000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>245000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>231000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-236000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>60000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-498000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-789000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>144000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E26" s="3">
         <v>286000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>388000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>526000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>104000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>146000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-506000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>57000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E27" s="3">
         <v>286000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>388000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>526000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>104000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>146000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-506000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>57000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,8 +1636,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1607,46 +1677,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E33" s="3">
         <v>286000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>388000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>526000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>104000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>146000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-506000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>57000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E35" s="3">
         <v>286000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>388000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>526000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>104000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>146000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-506000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>57000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,312 +1882,337 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1262000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1067000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1215000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1316000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1492000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1231000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2226000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2026000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1034000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1343000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>399000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E42" s="3">
         <v>195000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14000</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>17000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>7000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>651000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>540000</v>
+      </c>
+      <c r="E43" s="3">
         <v>577000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>423000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>562000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>451000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>447000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>370000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>382000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>532000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>477000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>650000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E44" s="3">
         <v>301000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>304000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>288000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>252000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>266000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>284000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>321000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>379000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>360000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>526000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E45" s="3">
         <v>40000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>293000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>214000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>45000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>448000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>86000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2136000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2180000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1966000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2226000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2502000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1972000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2929000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2950000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1991000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2125000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1662000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E47" s="3">
         <v>172000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>157000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>219000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>82000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>177000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>197000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>213000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>233000</v>
       </c>
       <c r="L47" s="3">
         <v>233000</v>
       </c>
       <c r="M47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="N47" s="3">
         <v>287000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12796000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12806000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12715000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12383000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9673000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10121000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10169000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11028000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11710000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13105000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21096000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2109,13 +2220,13 @@
         <v>481000</v>
       </c>
       <c r="E49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="F49" s="3">
         <v>628000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>481000</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>11</v>
@@ -2132,14 +2243,17 @@
       <c r="L49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E52" s="3">
         <v>870000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1761000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1502000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1154000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1436000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1377000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1071000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1089000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>486000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>468000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17455000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16509000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17227000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16811000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13411000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13706000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14672000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15262000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15023000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15949000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23513000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E57" s="3">
         <v>719000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>556000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>661000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>455000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>495000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>474000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>520000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>483000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>618000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>952000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>336000</v>
+      </c>
+      <c r="E58" s="3">
         <v>310000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>435000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>967000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>803000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>207000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>415000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>420000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>190000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>152000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>400000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E59" s="3">
         <v>290000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>233000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>226000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>485000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>249000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>370000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>616000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>226000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1126000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1319000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1224000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1854000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1743000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>951000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1259000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1556000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>875000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>926000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1578000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4722000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4111000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4175000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3952000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3026000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3756000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4588000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4842000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5491000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5555000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8953000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4309000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3403000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4296000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3726000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1644000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1848000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1908000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1784000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2288000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2047000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3269000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10157000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8833000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9695000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9532000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6413000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6555000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7755000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8182000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8654000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8528000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13800000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-758000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-359000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-514000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-774000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-980000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>122000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2070000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7298000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7676000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7532000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7279000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6998000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7151000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6917000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7080000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6369000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7421000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9713000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-289000</v>
+      </c>
+      <c r="E81" s="3">
         <v>286000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>388000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>526000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>104000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>146000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-506000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>57000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>838000</v>
+      </c>
+      <c r="E89" s="3">
         <v>995000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1051000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>934000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>644000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>586000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>662000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>566000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>291000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>562000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>532000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1119000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-674000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-359000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-258000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-312000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-222000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-225000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>20000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-992000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,20 +3916,21 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-124000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-127000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3710,19 +3944,22 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-43000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-78000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-83000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-460000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-791000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1010000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-120000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-220000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>664000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-121000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1033000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>333000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-5000</v>
       </c>
       <c r="G101" s="3">
         <v>-5000</v>
       </c>
       <c r="H101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-148000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-101000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-176000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>261000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-995000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>992000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>195000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>707000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-328000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1728000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2143000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2043000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2046000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1727000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1692000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1506000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1403000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1191000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1181000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1261000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1245000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1457000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1241000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1149000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1162000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1253000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1066000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1069000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1055000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1001000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>882000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E10" s="3">
         <v>483000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>686000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>802000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>897000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>565000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>439000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>440000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>334000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>136000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>180000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>379000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,49 +883,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>75000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>60000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>45000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>41000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>53000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>91000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>36000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>152000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,63 +969,69 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E14" s="3">
         <v>755000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>76000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-34000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>951000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1477000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2854000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1000</v>
       </c>
       <c r="H15" s="3">
         <v>1000</v>
@@ -1023,19 +1046,22 @@
         <v>1000</v>
       </c>
       <c r="L15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="3">
         <v>4000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1000</v>
       </c>
       <c r="N15" s="3">
         <v>1000</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2119000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1715000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1453000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1275000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1392000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1535000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2248000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1286000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2793000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3953000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1087000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-391000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>428000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>590000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>771000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>335000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>157000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-742000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>174000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,8 +1180,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,49 +1222,55 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E21" s="3">
         <v>95000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>510000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1050000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>782000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>663000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>203000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-394000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>550000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1270,90 +1310,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-391000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>428000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>590000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>771000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>335000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>157000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-742000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>117000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>174000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-102000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>142000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>202000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>245000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>231000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-236000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>60000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-498000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-789000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>144000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-289000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>286000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>388000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>526000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>104000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>146000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-506000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>57000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-289000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>286000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>388000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>526000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>104000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>146000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-506000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>57000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,8 +1706,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1680,49 +1750,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-289000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>286000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>388000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>526000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>104000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>146000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-506000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>57000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-289000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>286000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>388000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>526000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>104000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>146000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-506000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>57000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,353 +1969,378 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1262000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1067000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1215000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1316000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1492000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1231000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2226000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2026000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1034000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1343000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>399000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E42" s="3">
         <v>25000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>195000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14000</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>651000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E43" s="3">
         <v>540000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>577000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>423000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>562000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>451000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>447000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>370000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>382000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>532000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>477000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>650000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E44" s="3">
         <v>284000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>301000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>304000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>288000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>252000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>266000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>284000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>321000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>379000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>360000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>526000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E45" s="3">
         <v>25000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>293000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>214000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>45000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>448000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>86000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2696000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2136000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2180000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1966000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2226000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2502000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1972000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2929000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2950000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1991000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2125000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1662000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>543000</v>
+      </c>
+      <c r="E47" s="3">
         <v>959000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>172000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>157000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>219000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>82000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>177000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>197000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>213000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>233000</v>
       </c>
       <c r="M47" s="3">
         <v>233000</v>
       </c>
       <c r="N47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="O47" s="3">
         <v>287000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12991000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12796000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12806000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12715000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12383000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9673000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10121000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10169000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11028000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11710000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13105000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21096000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>481000</v>
+        <v>383000</v>
       </c>
       <c r="E49" s="3">
         <v>481000</v>
       </c>
       <c r="F49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="G49" s="3">
         <v>628000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>481000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>11</v>
@@ -2246,14 +2357,17 @@
       <c r="M49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1083000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>870000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1761000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1502000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1154000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1436000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1377000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1071000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1089000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>486000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>468000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17656000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17455000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16509000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17227000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16811000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13411000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13706000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14672000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15262000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15023000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15949000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23513000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E57" s="3">
         <v>549000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>719000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>556000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>661000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>455000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>495000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>474000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>520000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>483000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>618000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>952000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E58" s="3">
         <v>336000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>310000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>435000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>967000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>803000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>207000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>415000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>420000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>190000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>152000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>400000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E59" s="3">
         <v>241000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>290000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>233000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>226000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>485000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>249000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>370000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>616000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>226000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1535000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1126000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1319000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1224000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1854000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1743000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>951000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1259000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1556000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>875000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>926000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1578000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4645000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4722000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4111000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4175000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3952000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3026000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3756000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4588000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4842000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5491000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5555000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8953000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4249000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4309000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3403000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4296000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3726000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1644000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1848000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1908000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1784000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2288000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2047000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3269000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10429000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10157000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8833000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9695000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9532000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6413000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6555000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7755000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8182000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8654000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8528000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13800000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-865000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-758000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-359000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-514000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-774000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-980000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>122000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2070000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7227000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7298000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7676000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7532000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7279000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6998000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7151000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6917000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7080000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6369000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7421000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9713000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-289000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>286000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>388000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>526000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>104000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>146000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-506000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>57000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E89" s="3">
         <v>838000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>995000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1051000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>934000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>644000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>586000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>662000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>566000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>291000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>562000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>532000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-674000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-359000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-258000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-312000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-222000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-225000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>20000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-992000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,23 +4150,24 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-92000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-124000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-127000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3947,19 +4181,22 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-43000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-78000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-83000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="E100" s="3">
         <v>501000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-460000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-791000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1010000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-120000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-220000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>664000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-121000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1033000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>333000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-25000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-5000</v>
       </c>
       <c r="H101" s="3">
         <v>-5000</v>
       </c>
       <c r="I101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E102" s="3">
         <v>195000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-148000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-101000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-176000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>261000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-995000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>992000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>195000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>707000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-328000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SSLZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2112000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1784000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1728000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2143000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2043000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2046000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1727000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1692000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1506000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1403000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1191000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1181000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1261000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1397000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1245000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1457000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1241000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1149000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1162000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1253000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1066000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1069000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1055000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1001000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>882000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E10" s="3">
         <v>387000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>483000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>686000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>802000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>897000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>565000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>439000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>440000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>334000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>136000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>180000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>379000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,52 +897,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E12" s="3">
         <v>34000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>75000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>60000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>45000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>41000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>53000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>91000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>47000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>36000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>152000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -972,69 +989,75 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="3">
         <v>135000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>755000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>76000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-34000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>951000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1477000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2854000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>1000</v>
@@ -1049,19 +1072,22 @@
         <v>1000</v>
       </c>
       <c r="M15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="3">
         <v>4000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1000</v>
       </c>
       <c r="O15" s="3">
         <v>1000</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1633000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1699000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2119000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1715000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1453000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1275000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1392000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1535000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2248000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1286000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2793000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3953000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1087000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E18" s="3">
         <v>85000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-391000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>428000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>590000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>771000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>335000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>157000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-742000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>174000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,8 +1214,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1225,52 +1259,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1093000</v>
+      </c>
+      <c r="E21" s="3">
         <v>128000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>95000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>510000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1050000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>782000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>663000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>203000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-394000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>550000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1313,96 +1353,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E23" s="3">
         <v>85000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-391000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>428000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>590000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>771000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>335000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>157000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-742000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>117000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>174000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E24" s="3">
         <v>153000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-102000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>142000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>202000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>245000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>231000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-236000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>60000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-498000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-789000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>144000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-68000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-289000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>286000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>388000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>526000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>104000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>146000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-506000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>57000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-68000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-289000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>286000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>388000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>526000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>104000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>146000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-506000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>57000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,8 +1776,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1753,52 +1823,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-68000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-289000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>286000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>388000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>526000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>104000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>146000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-506000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>57000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-68000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-289000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>286000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>388000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>526000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>104000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>146000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-506000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>57000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,360 +2056,385 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2417000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1319000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1262000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1067000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1215000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1316000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1492000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1231000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2226000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2026000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1034000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1343000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>399000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>29000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>25000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>195000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>28000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14000</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>651000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E43" s="3">
         <v>583000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>540000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>577000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>423000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>562000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>451000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>447000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>370000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>382000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>532000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>477000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>650000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E44" s="3">
         <v>288000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>284000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>301000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>304000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>288000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>252000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>266000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>284000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>321000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>379000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>360000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>526000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E45" s="3">
         <v>477000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>25000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>32000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>293000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>214000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>448000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>86000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3696000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2696000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2136000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2180000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1966000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2226000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2502000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1972000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2929000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2950000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1991000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2125000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1662000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E47" s="3">
         <v>543000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>959000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>172000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>157000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>219000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>82000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>177000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>197000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>213000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>233000</v>
       </c>
       <c r="N47" s="3">
         <v>233000</v>
       </c>
       <c r="O47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="P47" s="3">
         <v>287000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12568000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12991000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12796000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12806000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12715000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12383000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9673000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10121000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10169000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11028000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11710000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13105000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>21096000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2331,19 +2442,19 @@
         <v>383000</v>
       </c>
       <c r="E49" s="3">
-        <v>481000</v>
+        <v>383000</v>
       </c>
       <c r="F49" s="3">
         <v>481000</v>
       </c>
       <c r="G49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="H49" s="3">
         <v>628000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>481000</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>11</v>
@@ -2360,14 +2471,17 @@
       <c r="N49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1348000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1043000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1083000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>870000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1761000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1502000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1154000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1436000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1377000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1071000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1089000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>486000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>468000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18505000</v>
+      </c>
+      <c r="E54" s="3">
         <v>17656000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17455000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16509000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17227000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16811000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13411000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13706000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14672000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15262000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15023000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15949000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23513000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E57" s="3">
         <v>558000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>549000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>719000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>556000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>661000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>455000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>495000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>474000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>520000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>483000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>618000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>952000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E58" s="3">
         <v>354000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>336000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>310000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>435000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>967000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>803000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>207000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>415000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>420000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>190000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>152000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E59" s="3">
         <v>623000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>241000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>290000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>233000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>226000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>485000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>249000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>370000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>616000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>226000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1708000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1535000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1126000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1319000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1224000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1854000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1743000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>951000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1259000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1556000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>875000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>926000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1578000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5264000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4645000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4722000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4111000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4175000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3952000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3026000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3756000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4588000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4842000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5491000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5555000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8953000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4230000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4249000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4309000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3403000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4296000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3726000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1644000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1848000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1908000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1784000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2288000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2047000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3269000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11202000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10429000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10157000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8833000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9695000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9532000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6413000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6555000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7755000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8182000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8654000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8528000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13800000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-623000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-865000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-758000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-359000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-514000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-774000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-980000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>122000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2070000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7303000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7227000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7298000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7676000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7532000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7279000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6998000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7151000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6917000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7080000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6369000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7421000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9713000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-68000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-289000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>286000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>388000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>526000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>104000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>146000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-506000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>57000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>942000</v>
+      </c>
+      <c r="E89" s="3">
         <v>638000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>838000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>995000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1051000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>934000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>644000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>586000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>662000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>566000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>291000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>562000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>532000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E91" s="3">
         <v>5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-334000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-342000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-674000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-359000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-258000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-312000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-222000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-225000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>20000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-992000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,26 +4384,27 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-44000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-92000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-124000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-127000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4184,19 +4418,22 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-43000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-78000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-83000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>479000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-255000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>501000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-460000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-791000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1010000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-120000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-220000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>664000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-121000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1033000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>333000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-5000</v>
       </c>
       <c r="I101" s="3">
         <v>-5000</v>
       </c>
       <c r="J101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E102" s="3">
         <v>57000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>195000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-148000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-101000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-176000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>261000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-995000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>992000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>195000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>707000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-328000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SSLZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2725000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2112000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1784000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1728000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2143000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2043000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2046000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1727000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1692000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1506000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1403000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1191000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1181000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1261000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1499000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1485000</v>
       </c>
-      <c r="E9" s="3">
-        <v>1397000</v>
-      </c>
       <c r="F9" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1245000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1457000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1241000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1149000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1162000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1253000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1066000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1069000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1055000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1001000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>882000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1226000</v>
+      </c>
+      <c r="E10" s="3">
         <v>627000</v>
       </c>
-      <c r="E10" s="3">
-        <v>387000</v>
-      </c>
       <c r="F10" s="3">
+        <v>386000</v>
+      </c>
+      <c r="G10" s="3">
         <v>483000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>686000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>802000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>897000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>565000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>439000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>440000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>334000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>136000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>180000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>379000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,55 +911,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E12" s="3">
         <v>41000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>34000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>75000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>60000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>41000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>53000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>91000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>47000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>36000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>152000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,75 +1009,81 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E14" s="3">
         <v>8000</v>
       </c>
-      <c r="E14" s="3">
-        <v>135000</v>
-      </c>
       <c r="F14" s="3">
+        <v>134000</v>
+      </c>
+      <c r="G14" s="3">
         <v>755000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>52000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>76000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-34000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>951000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1477000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2854000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1000</v>
       </c>
       <c r="J15" s="3">
         <v>1000</v>
@@ -1075,19 +1098,22 @@
         <v>1000</v>
       </c>
       <c r="N15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="3">
         <v>4000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1000</v>
       </c>
       <c r="P15" s="3">
         <v>1000</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1999000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1633000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1699000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2119000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1715000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1453000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1275000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1392000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1535000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2248000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1286000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2793000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3953000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1087000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E18" s="3">
         <v>479000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>85000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-391000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>428000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>590000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>771000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>335000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-742000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>117000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>174000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,8 +1248,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,55 +1296,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1093000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>128000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>95000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>510000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1050000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>782000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>663000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>203000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-394000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>550000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,102 +1396,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E23" s="3">
         <v>479000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>85000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-391000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>428000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>590000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>771000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>335000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>157000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-742000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>117000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>174000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E24" s="3">
         <v>125000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>153000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-102000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>142000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>202000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>245000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>231000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-236000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>60000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-498000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-789000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>144000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E26" s="3">
         <v>354000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-68000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-289000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>286000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>388000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>526000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>104000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>146000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-506000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>57000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E27" s="3">
         <v>354000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-68000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-289000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>286000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>388000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>526000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>104000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>146000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-506000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>57000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,8 +1846,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1826,55 +1896,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E33" s="3">
         <v>354000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-68000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-289000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>286000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>388000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>526000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>104000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>146000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-506000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>57000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E35" s="3">
         <v>354000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-68000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-289000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>286000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>388000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>526000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>104000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>146000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-506000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>57000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,407 +2143,432 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2976000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2417000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1319000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1262000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1067000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1215000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1316000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1492000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1231000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2226000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2026000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1034000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1343000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>399000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>25000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>195000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>28000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>17000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>651000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>995000</v>
+      </c>
+      <c r="E43" s="3">
         <v>703000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>583000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>540000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>577000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>423000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>562000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>451000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>447000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>370000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>382000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>532000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>477000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>650000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E44" s="3">
         <v>294000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>288000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>284000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>301000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>304000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>288000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>252000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>266000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>284000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>321000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>379000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>360000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>526000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E45" s="3">
         <v>281000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>477000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>25000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>293000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>214000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>448000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>86000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4751000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3696000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2696000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2136000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2180000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1966000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2226000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2502000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1972000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2929000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2950000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1991000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2125000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1662000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>749000</v>
+      </c>
+      <c r="E47" s="3">
         <v>510000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>543000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>959000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>172000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>157000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>219000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>82000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>177000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>197000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>213000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>233000</v>
       </c>
       <c r="O47" s="3">
         <v>233000</v>
       </c>
       <c r="P47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>287000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21647000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12568000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12991000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12796000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12806000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12715000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12383000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9673000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10121000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10169000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11028000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11710000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13105000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>21096000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>383000</v>
+        <v>1463000</v>
       </c>
       <c r="E49" s="3">
         <v>383000</v>
       </c>
       <c r="F49" s="3">
-        <v>481000</v>
+        <v>383000</v>
       </c>
       <c r="G49" s="3">
         <v>481000</v>
       </c>
       <c r="H49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="I49" s="3">
         <v>628000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>481000</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>11</v>
@@ -2474,14 +2585,17 @@
       <c r="O49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1348000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1043000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1083000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>870000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1761000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1502000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1154000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1436000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1377000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1071000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1089000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>486000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>468000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30009000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18505000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17656000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17455000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16509000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17227000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16811000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13411000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13706000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14672000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15262000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15023000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15949000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23513000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E57" s="3">
         <v>825000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>558000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>549000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>719000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>556000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>661000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>455000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>495000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>474000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>520000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>483000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>618000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>952000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="E58" s="3">
         <v>373000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>354000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>336000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>310000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>435000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>967000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>803000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>207000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>415000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>420000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>190000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>152000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>711000</v>
+      </c>
+      <c r="E59" s="3">
         <v>510000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>623000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>241000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>290000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>233000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>226000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>485000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>249000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>370000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>616000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>226000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3011000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1708000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1535000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1126000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1319000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1224000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1854000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1743000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>951000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1259000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1556000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>875000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>926000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1578000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6964000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5264000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4645000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4722000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4111000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4175000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3952000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3026000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3756000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4588000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4842000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5491000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5555000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>8953000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6424000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4230000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4249000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4309000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3403000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4296000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3726000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1644000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1848000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1908000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1784000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2288000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2047000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3269000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16399000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11202000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10429000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10157000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8833000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9695000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9532000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6413000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6555000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7755000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8182000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8654000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8528000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13800000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-419000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-623000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-865000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-758000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-359000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-514000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-774000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-980000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>122000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2070000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13610000</v>
+      </c>
+      <c r="E76" s="3">
         <v>7303000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7227000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7298000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7676000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7532000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7279000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6998000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7151000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6917000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7080000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6369000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7421000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9713000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E81" s="3">
         <v>354000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-68000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-289000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>286000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>388000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>526000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>104000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>146000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-506000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>57000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1330000</v>
+      </c>
+      <c r="E89" s="3">
         <v>942000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>638000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>838000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>995000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1051000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>934000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>644000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>586000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>662000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>566000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>291000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>562000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>532000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-334000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-342000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-674000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-359000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-258000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-312000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-222000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-225000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>20000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-992000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,29 +4618,30 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-104000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-44000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-92000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-124000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-127000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4421,19 +4655,22 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-43000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-78000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-960000</v>
+      </c>
+      <c r="E100" s="3">
         <v>479000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-255000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>501000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-460000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-791000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1010000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-120000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-220000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>664000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-121000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1033000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>333000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-5000</v>
       </c>
       <c r="J101" s="3">
         <v>-5000</v>
       </c>
       <c r="K101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1098000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>57000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>195000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-148000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-101000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-176000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>261000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-995000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>992000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>195000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>707000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-328000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SSLZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2725000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2112000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1784000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1728000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2143000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2043000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2046000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1727000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1692000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1506000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1403000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1191000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1261000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1912000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1499000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1485000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1398000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1245000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1457000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1241000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1149000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1162000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1253000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1066000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1069000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1055000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>882000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1226000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>627000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>386000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>483000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>686000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>802000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>897000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>565000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>439000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>440000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>334000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>136000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>180000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>379000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,58 +925,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E12" s="3">
         <v>85000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>41000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>75000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>60000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>41000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>53000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>91000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>47000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>36000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>152000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,58 +1029,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>68000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>134000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>755000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>52000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>76000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-34000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>951000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1477000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2854000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1073,20 +1096,20 @@
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1000</v>
       </c>
       <c r="K15" s="3">
         <v>1000</v>
@@ -1101,19 +1124,22 @@
         <v>1000</v>
       </c>
       <c r="O15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="3">
         <v>4000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>1000</v>
       </c>
       <c r="Q15" s="3">
         <v>1000</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2213000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1999000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1633000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1699000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2119000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1715000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1453000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1275000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1392000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1535000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2248000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1286000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2793000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3953000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1087000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="E18" s="3">
         <v>726000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>479000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>85000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-391000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>428000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>590000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>771000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>335000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>157000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-742000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>117000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>174000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,8 +1282,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,58 +1333,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2483000</v>
+      </c>
+      <c r="E21" s="3">
         <v>741000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1093000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>128000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>95000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>510000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1050000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>782000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>663000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>203000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-394000</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>550000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,108 +1439,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="E23" s="3">
         <v>726000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>479000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>85000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-391000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>428000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>590000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>771000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>335000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>157000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-742000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>117000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>174000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>463000</v>
+      </c>
+      <c r="E24" s="3">
         <v>422000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>125000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>153000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-102000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>142000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>202000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>245000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>231000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-236000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>60000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-498000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-789000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>144000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E26" s="3">
         <v>304000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>354000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-68000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-289000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>286000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>388000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>526000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>146000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-506000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>57000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>30000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E27" s="3">
         <v>304000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>354000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-68000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-289000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>286000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>388000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>526000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>146000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-506000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>57000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>30000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,8 +1916,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1899,58 +1969,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E33" s="3">
         <v>304000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>354000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-68000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-289000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>286000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>388000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>526000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>146000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-506000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>57000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E35" s="3">
         <v>304000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>354000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-68000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-289000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>286000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>388000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>526000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>146000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-506000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>57000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,434 +2230,459 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3279000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2976000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2417000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1319000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1262000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1067000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1215000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1316000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1492000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1231000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2226000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2026000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1034000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1343000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>399000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E42" s="3">
         <v>7000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>25000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>195000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>28000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>651000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E43" s="3">
         <v>995000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>703000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>583000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>540000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>577000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>423000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>562000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>451000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>447000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>370000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>382000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>532000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>477000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>650000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E44" s="3">
         <v>406000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>294000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>288000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>284000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>301000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>304000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>288000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>252000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>266000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>284000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>321000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>379000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>360000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>526000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E45" s="3">
         <v>367000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>281000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>477000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>40000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>293000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>214000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>45000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>448000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>86000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6018000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4751000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3696000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2696000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2136000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2180000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1966000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2226000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2502000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1972000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2929000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2950000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1991000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2125000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1662000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E47" s="3">
         <v>749000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>510000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>543000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>959000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>172000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>157000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>219000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>177000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>197000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>213000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>233000</v>
       </c>
       <c r="P47" s="3">
         <v>233000</v>
       </c>
       <c r="Q47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="R47" s="3">
         <v>287000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20297000</v>
+      </c>
+      <c r="E48" s="3">
         <v>21647000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12568000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12991000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12796000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12806000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12715000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12383000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9673000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10121000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10169000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11028000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11710000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13105000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21096000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1336000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1463000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>383000</v>
       </c>
       <c r="F49" s="3">
         <v>383000</v>
       </c>
       <c r="G49" s="3">
-        <v>481000</v>
+        <v>383000</v>
       </c>
       <c r="H49" s="3">
         <v>481000</v>
       </c>
       <c r="I49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="J49" s="3">
         <v>628000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>481000</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>11</v>
@@ -2588,14 +2699,17 @@
       <c r="P49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1399000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1348000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1043000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1083000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>870000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1761000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1502000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1154000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1436000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1377000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1071000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1089000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>486000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>468000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29558000</v>
+      </c>
+      <c r="E54" s="3">
         <v>30009000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18505000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17656000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17455000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16509000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17227000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16811000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13411000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13706000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14672000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15262000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15023000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15949000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23513000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>957000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1215000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>825000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>558000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>549000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>719000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>556000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>661000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>455000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>495000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>474000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>520000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>483000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>618000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>952000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1085000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>373000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>354000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>336000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>310000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>435000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>967000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>803000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>207000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>415000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>420000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>190000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>152000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>400000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E59" s="3">
         <v>711000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>510000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>623000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>241000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>290000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>233000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>226000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>485000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>249000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>370000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>616000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>226000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3851000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3011000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1708000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1535000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1126000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1319000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1224000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1854000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1743000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>951000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1259000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1556000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>875000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>926000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1578000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6012000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6964000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5264000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4645000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4722000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4111000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4175000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3952000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3026000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3756000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4588000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4842000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5491000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5555000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>8953000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5380000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6424000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4230000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4249000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4309000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3403000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4296000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3726000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1644000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1848000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1908000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1784000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2288000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2047000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3269000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15243000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16399000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11202000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10429000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10157000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8833000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9695000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9532000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6413000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6555000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7755000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8182000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8654000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8528000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13800000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-559000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-419000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-623000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-865000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-758000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-359000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-514000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-774000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-980000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>122000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2070000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14315000</v>
+      </c>
+      <c r="E76" s="3">
         <v>13610000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7303000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7227000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7298000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7676000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7532000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7279000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6998000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7151000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6917000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7080000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6369000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7421000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9713000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1167000</v>
+      </c>
+      <c r="E81" s="3">
         <v>304000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>354000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-68000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-289000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>286000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>388000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>526000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>146000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-506000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>57000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2137000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1330000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>942000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>638000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>838000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>995000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1051000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>934000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>644000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>586000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>662000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>566000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>291000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>562000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>532000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>5000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-612000</v>
+      </c>
+      <c r="E94" s="3">
         <v>197000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-334000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-342000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-674000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-359000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-258000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-312000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-222000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-225000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>20000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-992000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,32 +4852,33 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-117000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-104000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-44000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-92000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-124000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-127000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4658,19 +4892,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-43000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-83000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1129000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-960000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>479000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-255000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>501000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-460000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-791000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1010000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-120000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-220000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>664000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-121000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1033000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>333000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-9000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-5000</v>
       </c>
       <c r="K101" s="3">
         <v>-5000</v>
       </c>
       <c r="L101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E102" s="3">
         <v>559000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1098000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>57000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>195000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-148000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-101000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-176000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>261000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-995000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>992000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>195000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>707000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-328000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SSLZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4144000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3843000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2725000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2112000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1784000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1728000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2143000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2043000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2046000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1727000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1692000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1506000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1403000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1191000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1181000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1261000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1990000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1912000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1499000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1485000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1398000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1245000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1457000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1241000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1149000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1162000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1253000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1066000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1069000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1055000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1001000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>882000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2154000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1931000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1226000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>627000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>386000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>483000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>686000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>802000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>897000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>565000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>439000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>440000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>334000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>136000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>180000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>379000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,61 +939,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E12" s="3">
         <v>103000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>85000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>75000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>28000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>60000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>41000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>53000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>91000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>47000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>152000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,61 +1049,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E14" s="3">
         <v>39000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>68000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>134000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>755000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>52000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>76000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-34000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>951000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>44000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1477000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2854000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,20 +1122,20 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1000</v>
       </c>
       <c r="L15" s="3">
         <v>1000</v>
@@ -1127,19 +1150,22 @@
         <v>1000</v>
       </c>
       <c r="P15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1000</v>
       </c>
       <c r="R15" s="3">
         <v>1000</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2213000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1999000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1633000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1699000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2119000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1715000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1453000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1275000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1392000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1535000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2248000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1286000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2793000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3953000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1087000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1630000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>726000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>479000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>85000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-391000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>428000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>590000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>771000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>335000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>157000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-742000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>174000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,8 +1316,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1336,61 +1370,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1359000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2483000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>741000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1093000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>128000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>95000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>510000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1050000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>782000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>663000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>203000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-394000</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>550000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1442,114 +1482,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1318000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1630000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>726000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>479000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>85000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-391000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>428000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>590000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>771000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>335000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>157000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-742000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>117000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>174000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E24" s="3">
         <v>463000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>422000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>125000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>153000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-102000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>142000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>202000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>245000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>231000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-236000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>60000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-498000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-789000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>144000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1167000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>304000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>354000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-68000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-289000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>286000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>388000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>526000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>146000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-506000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>57000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>30000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1167000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>304000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>354000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-68000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-289000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>286000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>388000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>526000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>146000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-506000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>57000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>30000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,8 +1818,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1874,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,8 +1986,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1972,61 +2042,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1167000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>304000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>354000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-68000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-289000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>286000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>388000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>526000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>146000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-506000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>57000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1167000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>304000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>354000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-68000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-289000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>286000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>388000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>526000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>146000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-506000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>57000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,461 +2317,486 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3279000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2976000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2417000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1319000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1262000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1067000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1215000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1316000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1492000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1231000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2226000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2026000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1034000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1343000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>399000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E42" s="3">
         <v>85000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>7000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>25000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>195000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>651000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>843000</v>
+      </c>
+      <c r="E43" s="3">
         <v>851000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>995000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>703000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>583000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>540000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>577000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>423000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>562000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>451000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>447000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>370000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>382000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>532000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>477000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>650000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E44" s="3">
         <v>470000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>406000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>294000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>288000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>284000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>301000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>304000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>288000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>252000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>266000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>284000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>321000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>379000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>360000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>526000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1333000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>367000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>281000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>477000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>40000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>293000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>214000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>45000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>448000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>86000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5128000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6018000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4751000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3696000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2696000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2136000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2180000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1966000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2226000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2502000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1972000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2929000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2950000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1991000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2125000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1662000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E47" s="3">
         <v>693000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>749000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>510000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>543000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>959000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>172000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>157000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>219000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>177000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>197000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>213000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>233000</v>
       </c>
       <c r="Q47" s="3">
         <v>233000</v>
       </c>
       <c r="R47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="S47" s="3">
         <v>287000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20494000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20297000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21647000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12568000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12991000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12796000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12806000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12715000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12383000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9673000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10121000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10169000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11028000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11710000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13105000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21096000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1336000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1463000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>383000</v>
       </c>
       <c r="G49" s="3">
         <v>383000</v>
       </c>
       <c r="H49" s="3">
-        <v>481000</v>
+        <v>383000</v>
       </c>
       <c r="I49" s="3">
         <v>481000</v>
       </c>
       <c r="J49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="K49" s="3">
         <v>628000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>481000</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>11</v>
@@ -2702,14 +2813,17 @@
       <c r="Q49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1214000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1399000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1348000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1043000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1083000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>870000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1761000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1502000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1154000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1436000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1377000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1071000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1089000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>486000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>468000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28856000</v>
+      </c>
+      <c r="E54" s="3">
         <v>29558000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30009000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18505000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17656000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17455000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16509000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17227000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16811000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13411000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13706000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14672000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15262000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15023000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15949000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23513000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="E57" s="3">
         <v>957000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1215000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>825000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>558000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>549000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>719000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>556000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>661000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>455000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>495000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>474000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>520000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>483000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>618000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>952000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>938000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1067000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1085000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>373000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>354000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>336000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>310000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>435000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>967000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>803000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>207000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>415000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>420000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>190000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>152000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>400000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1389000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1827000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>711000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>510000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>623000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>241000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>290000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>233000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>226000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>485000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>249000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>370000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>616000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>226000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3472000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3851000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3011000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1708000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1535000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1126000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1319000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1224000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1854000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1743000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>951000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1259000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1556000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>875000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>926000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1578000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4581000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6012000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6964000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5264000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4645000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4722000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4111000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4175000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3952000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3026000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3756000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4588000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4842000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5491000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5555000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8953000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5960000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5380000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6424000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4230000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4249000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4309000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3403000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4296000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3726000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1644000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1848000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1908000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1784000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2288000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2047000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3269000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14013000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15243000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16399000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11202000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10429000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10157000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8833000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9695000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9532000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6413000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6555000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7755000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8182000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8654000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8528000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13800000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-559000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-419000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-623000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-865000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-758000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-359000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-514000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-774000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-980000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>122000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2070000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14843000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14315000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13610000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7303000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7227000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7298000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7676000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7532000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7279000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6998000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7151000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6917000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7080000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6369000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7421000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9713000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1167000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>304000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>354000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-68000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-289000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>286000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>388000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>526000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>146000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-506000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>57000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,8 +4426,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4281,8 +4480,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2343000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2137000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1330000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>942000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>638000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>838000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>995000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1051000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>934000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>644000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>586000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>662000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>566000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>291000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>562000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>532000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>5000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1057000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-612000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>197000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-334000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-342000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-674000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-359000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-258000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-312000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-222000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-225000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>20000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-992000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,35 +5086,36 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-248000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-288000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-117000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-104000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-44000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-92000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-124000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-127000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4895,19 +5129,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-78000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-83000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2272000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1129000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-960000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>479000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-255000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>501000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-460000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-791000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1010000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-220000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>664000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1033000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>333000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-5000</v>
       </c>
       <c r="L101" s="3">
         <v>-5000</v>
       </c>
       <c r="M101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-998000</v>
+      </c>
+      <c r="E102" s="3">
         <v>374000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>559000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1098000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>195000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-148000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-101000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-176000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>261000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-995000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>992000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>195000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>707000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-328000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>327000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-16000</v>
+        <v>-929000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4000</v>
+        <v>-778000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6000</v>
+        <v>-611000</v>
       </c>
       <c r="G91" s="3">
-        <v>-10000</v>
+        <v>-492000</v>
       </c>
       <c r="H91" s="3">
-        <v>5000</v>
+        <v>-365000</v>
       </c>
       <c r="I91" s="3">
-        <v>-14000</v>
+        <v>-1100000</v>
       </c>
       <c r="J91" s="3">
-        <v>-13000</v>
+        <v>-490000</v>
       </c>
       <c r="K91" s="3">
         <v>-5000</v>

--- a/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SSLZY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SSLZY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,261 +665,274 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3057000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4144000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3843000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2725000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2112000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1784000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1728000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2143000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2043000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2046000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1727000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1692000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1506000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1403000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1191000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1181000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1261000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2150000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1837000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1990000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1912000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1499000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1485000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1398000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1245000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1457000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1241000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1149000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1162000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1253000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1066000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1069000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1055000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1001000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>882000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1570000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2154000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1931000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1226000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>627000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>386000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>483000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>686000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>802000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>897000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>565000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>439000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>440000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>334000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>136000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>180000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>379000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>580000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,64 +953,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E12" s="3">
         <v>45000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>103000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>85000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>34000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>75000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>28000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>60000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>41000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>53000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>91000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>47000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>152000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>154000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1052,64 +1069,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E14" s="3">
         <v>320000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>68000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>134000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>755000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>52000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>76000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-34000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>951000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>44000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1477000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2854000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>2289000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,20 +1148,20 @@
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1000</v>
       </c>
       <c r="M15" s="3">
         <v>1000</v>
@@ -1153,19 +1176,22 @@
         <v>1000</v>
       </c>
       <c r="Q15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R15" s="3">
         <v>4000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1000</v>
       </c>
       <c r="S15" s="3">
         <v>1000</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="T15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2081000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2826000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2213000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1999000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1633000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1699000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2119000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1715000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1453000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1275000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1392000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1535000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2248000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2793000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3953000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1087000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3834000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1318000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1630000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>726000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>479000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>85000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-391000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>428000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>590000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>771000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>335000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-742000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1602000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2772000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>174000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,8 +1350,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1373,64 +1407,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1359000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2483000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>741000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1093000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>128000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>95000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>510000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1050000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>782000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>663000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>203000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-394000</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1203000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2731000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>550000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1554000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1485,120 +1525,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1318000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1630000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>726000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>479000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>85000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-391000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>428000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>590000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>771000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>335000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>157000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-742000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>117000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1602000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2772000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>174000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1684000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E24" s="3">
         <v>373000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>463000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>422000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>125000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>153000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-102000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>142000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>202000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>245000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>231000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-236000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-498000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-789000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>144000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-543000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E26" s="3">
         <v>945000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1167000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>304000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>354000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-68000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-289000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>286000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>388000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>526000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>146000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-506000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>57000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1104000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1983000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>30000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E27" s="3">
         <v>945000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1167000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>304000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>354000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-68000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-289000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>286000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>388000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>526000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>104000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>146000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-506000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>57000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1104000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1983000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>30000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1879,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,8 +1938,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,8 +2056,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2045,64 +2115,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E33" s="3">
         <v>945000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1167000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>304000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>354000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-68000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-289000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>286000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>388000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>526000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>104000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>146000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-506000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>57000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1104000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1983000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E35" s="3">
         <v>945000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1167000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>304000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>354000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-68000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-289000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>286000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>388000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>526000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>104000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>146000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-506000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>57000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1104000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1983000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,456 +2404,481 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1840000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2352000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3279000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2976000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2417000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1319000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1262000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1067000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1215000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1316000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1492000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1231000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2226000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2026000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1034000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1343000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>399000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>775000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E42" s="3">
         <v>109000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>85000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>7000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>25000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>195000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>17000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>651000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>66000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E43" s="3">
         <v>843000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>851000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>995000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>703000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>583000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>540000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>577000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>423000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>562000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>451000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>447000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>370000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>382000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>532000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>477000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>650000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>690000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E44" s="3">
         <v>443000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>470000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>406000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>294000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>288000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>284000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>301000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>304000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>288000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>252000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>266000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>284000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>321000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>379000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>360000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>526000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>443000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1381000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1333000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>367000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>281000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>477000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>40000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>293000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>214000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>45000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>448000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>86000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4527000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5128000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6018000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4751000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3696000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2696000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2136000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2180000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1966000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2226000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2502000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1972000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2929000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2950000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1991000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2125000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1662000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2065000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E47" s="3">
         <v>660000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>693000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>749000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>510000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>543000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>959000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>172000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>157000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>219000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>177000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>197000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>213000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>233000</v>
       </c>
       <c r="R47" s="3">
         <v>233000</v>
       </c>
       <c r="S47" s="3">
+        <v>233000</v>
+      </c>
+      <c r="T47" s="3">
         <v>287000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20627000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20494000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20297000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21647000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12568000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12991000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12796000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12806000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12715000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12383000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9673000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10121000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10169000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11028000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11710000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13105000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21096000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19795000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2775,31 +2886,31 @@
         <v>1190000</v>
       </c>
       <c r="E49" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1336000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1463000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>383000</v>
       </c>
       <c r="H49" s="3">
         <v>383000</v>
       </c>
       <c r="I49" s="3">
-        <v>481000</v>
+        <v>383000</v>
       </c>
       <c r="J49" s="3">
         <v>481000</v>
       </c>
       <c r="K49" s="3">
+        <v>481000</v>
+      </c>
+      <c r="L49" s="3">
         <v>628000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>481000</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>11</v>
@@ -2816,14 +2927,17 @@
       <c r="R49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1384000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1214000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1399000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1348000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1043000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1083000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>870000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1761000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1502000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1154000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1436000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1377000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1071000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1089000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>486000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>468000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>212000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28479000</v>
+      </c>
+      <c r="E54" s="3">
         <v>28856000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29558000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30009000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18505000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17656000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17455000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16509000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17227000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16811000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13411000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13706000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14672000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15262000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15023000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15949000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23513000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22345000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>807000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1145000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>957000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1215000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>825000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>549000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>719000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>556000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>661000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>455000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>495000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>474000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>520000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>483000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>618000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>952000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1382000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E58" s="3">
         <v>938000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1067000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1085000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>373000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>354000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>336000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>310000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>435000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>967000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>803000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>207000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>415000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>420000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>190000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>152000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1389000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1827000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>711000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>510000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>623000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>241000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>290000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>233000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>226000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>485000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>249000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>370000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>616000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>202000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>156000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>226000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>237000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2912000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3472000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3851000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3011000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1708000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1535000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1126000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1319000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1224000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1854000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1743000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>951000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1259000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>875000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>926000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1578000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1946000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4856000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4581000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6012000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6964000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5264000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4645000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4722000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4111000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4175000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3952000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3026000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3756000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4588000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4842000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5491000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5555000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8953000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8106000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5906000</v>
+      </c>
+      <c r="E62" s="3">
         <v>5960000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5380000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6424000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4230000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4249000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4309000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3403000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4296000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3726000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1644000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1848000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1908000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1784000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2288000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2047000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3269000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2880000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13674000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14013000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15243000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16399000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11202000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10429000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10157000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8833000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9695000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9532000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6413000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6555000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7755000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8182000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8654000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8528000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13800000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12928000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E72" s="3">
         <v>142000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-559000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-419000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-623000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-865000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-758000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-359000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-514000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-774000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1230000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1339000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1487000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-980000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1045000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>122000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2070000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2166000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14805000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14843000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14315000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13610000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7303000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7227000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7298000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7676000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7532000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7279000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6998000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7151000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6917000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7080000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6369000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7421000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9713000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9417000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>790000</v>
+      </c>
+      <c r="E81" s="3">
         <v>945000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1167000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>304000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>354000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-68000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-289000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>286000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>388000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>526000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>104000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>146000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-506000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>57000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1104000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1983000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1141000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,8 +4625,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4483,8 +4682,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1554000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2343000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2137000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1330000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>942000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>638000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>838000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>995000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1051000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>934000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>644000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>586000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>662000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>566000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>291000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>562000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>532000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1099000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1282000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-929000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-778000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-611000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-492000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-365000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1100000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-490000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>3000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2211000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1694000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1401000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1057000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-612000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>197000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-334000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-342000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1119000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-674000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-359000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2115000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-258000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-312000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-222000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-225000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>20000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-992000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1799000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,38 +5320,39 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-498000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-248000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-288000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-117000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-104000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-44000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-92000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-124000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-127000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5132,19 +5366,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-43000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-78000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-83000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-115000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-738000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2272000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1129000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-960000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>479000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-255000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>501000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-460000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-791000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1010000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1298000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-220000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>664000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-121000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1033000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>333000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1016000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-5000</v>
       </c>
       <c r="M101" s="3">
         <v>-5000</v>
       </c>
       <c r="N101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-590000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-998000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>374000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>559000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1098000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>195000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-148000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-101000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-176000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>261000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-995000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>992000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>195000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>707000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-328000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>327000</v>
       </c>
     </row>
